--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/NewStudentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/NewStudentTestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/git/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37028219921030111X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理学</t>
     <rPh sb="0" eb="1">
       <t>guan'l</t>
@@ -186,18 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Norelco99887722</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2299900042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18100003052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本科普通包</t>
     <rPh sb="0" eb="1">
       <t>ben'k</t>
@@ -267,6 +251,22 @@
   </si>
   <si>
     <t>2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${QQUtils.genUnRegisterQQ()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -718,19 +718,19 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -748,32 +748,32 @@
         <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>29</v>
       </c>
       <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/NewStudentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/NewStudentTestCase.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/git/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10980" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -250,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getUnUserdUserNname()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,14 +259,18 @@
   </si>
   <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,33 +624,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,18 +712,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -748,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>28</v>
@@ -760,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -791,13 +787,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="66.95" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -816,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="35.1" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -824,7 +820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="32.1" customHeight="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
